--- a/biology/Mycologie/Clavaria_argillacea/Clavaria_argillacea.xlsx
+++ b/biology/Mycologie/Clavaria_argillacea/Clavaria_argillacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavaire argilacée
 Clavaria argillacea, la Clavaire argilacée,  est une espèce de champignons agaricomycètes de la famille des Clavariaceae.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,6 +581,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,6 +609,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,6 +637,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
